--- a/Code/Results/Cases/Case_1_207/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_207/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04868860943425</v>
+        <v>18.27072548466544</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.777277881194447</v>
+        <v>3.281823099207152</v>
       </c>
       <c r="E2">
-        <v>32.83723038731579</v>
+        <v>23.64955426240219</v>
       </c>
       <c r="F2">
-        <v>30.05089133755375</v>
+        <v>23.99422088531609</v>
       </c>
       <c r="G2">
-        <v>45.84487039360658</v>
+        <v>30.55378444541328</v>
       </c>
       <c r="H2">
-        <v>11.57490944353868</v>
+        <v>13.22139441892493</v>
       </c>
       <c r="I2">
-        <v>16.04469443879805</v>
+        <v>22.94321346680962</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>14.92174034712321</v>
+        <v>11.34947255283348</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.47044238446885</v>
+        <v>17.64103966924031</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.64581925585167</v>
+        <v>3.322825915193549</v>
       </c>
       <c r="E3">
-        <v>31.00398154437287</v>
+        <v>22.85656797215459</v>
       </c>
       <c r="F3">
-        <v>27.80198971522652</v>
+        <v>23.57963557676031</v>
       </c>
       <c r="G3">
-        <v>42.36854331896168</v>
+        <v>29.60489905944011</v>
       </c>
       <c r="H3">
-        <v>10.98068400895336</v>
+        <v>13.19082029628856</v>
       </c>
       <c r="I3">
-        <v>16.06369827901165</v>
+        <v>23.08291819917119</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.93073100285347</v>
+        <v>11.02035033082415</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.45514531962505</v>
+        <v>17.24286386186172</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.564742087041883</v>
+        <v>3.349116637291488</v>
       </c>
       <c r="E4">
-        <v>29.82574064014243</v>
+        <v>22.35468758350239</v>
       </c>
       <c r="F4">
-        <v>26.44445922819695</v>
+        <v>23.33477672204104</v>
       </c>
       <c r="G4">
-        <v>40.17085278516907</v>
+        <v>29.02673973814718</v>
       </c>
       <c r="H4">
-        <v>10.62179983758721</v>
+        <v>13.17767010015258</v>
       </c>
       <c r="I4">
-        <v>16.10697871898164</v>
+        <v>23.17813381859774</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.28940533512167</v>
+        <v>10.81409610229775</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.02832912831132</v>
+        <v>17.07791033728303</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.531560612282965</v>
+        <v>3.360111623789527</v>
       </c>
       <c r="E5">
-        <v>29.33259538150621</v>
+        <v>22.14665700845435</v>
       </c>
       <c r="F5">
-        <v>25.91841377946449</v>
+        <v>23.23758845481536</v>
       </c>
       <c r="G5">
-        <v>39.25923482196995</v>
+        <v>28.79274946250067</v>
       </c>
       <c r="H5">
-        <v>10.47716472669692</v>
+        <v>13.17372211771504</v>
       </c>
       <c r="I5">
-        <v>16.13205527463814</v>
+        <v>23.21929493235008</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.01973215234617</v>
+        <v>10.72911222559358</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.95666689055918</v>
+        <v>17.05036377656599</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.526040884355474</v>
+        <v>3.361954351640056</v>
       </c>
       <c r="E6">
-        <v>29.24993190749937</v>
+        <v>22.11190969786611</v>
       </c>
       <c r="F6">
-        <v>25.83072804137024</v>
+        <v>23.22161144881406</v>
       </c>
       <c r="G6">
-        <v>39.1068919912457</v>
+        <v>28.75400777713368</v>
       </c>
       <c r="H6">
-        <v>10.45324941757241</v>
+        <v>13.17315164078093</v>
       </c>
       <c r="I6">
-        <v>16.13665378065419</v>
+        <v>23.22627186318965</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.97444835728747</v>
+        <v>10.71494786165434</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.44944207335515</v>
+        <v>17.24064985516499</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.564295228459391</v>
+        <v>3.349263779292908</v>
       </c>
       <c r="E7">
-        <v>29.81914219749969</v>
+        <v>22.35189586440757</v>
       </c>
       <c r="F7">
-        <v>26.43738756872124</v>
+        <v>23.33345530629209</v>
       </c>
       <c r="G7">
-        <v>40.15862338962995</v>
+        <v>29.02357686372091</v>
       </c>
       <c r="H7">
-        <v>10.61984253782412</v>
+        <v>13.17761114953167</v>
       </c>
       <c r="I7">
-        <v>16.10728745656601</v>
+        <v>23.17867939350804</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.2858022301957</v>
+        <v>10.81295360172462</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.5092226312636</v>
+        <v>18.05612566906511</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.731993505157244</v>
+        <v>3.295730072830162</v>
       </c>
       <c r="E8">
-        <v>32.21616067176274</v>
+        <v>23.37938921145286</v>
       </c>
       <c r="F8">
-        <v>29.28430329732328</v>
+        <v>23.84935421434361</v>
       </c>
       <c r="G8">
-        <v>44.65920508893259</v>
+        <v>30.22597309147599</v>
       </c>
       <c r="H8">
-        <v>11.36883754073853</v>
+        <v>13.20968436765264</v>
       </c>
       <c r="I8">
-        <v>16.04437774350302</v>
+        <v>22.98941742372466</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>14.58681105536943</v>
+        <v>11.23692381713158</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.27095202402322</v>
+        <v>19.55548028252181</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.060591733529916</v>
+        <v>3.199551671027258</v>
       </c>
       <c r="E9">
-        <v>36.49300210406846</v>
+        <v>25.26535270026964</v>
       </c>
       <c r="F9">
-        <v>34.66776795964265</v>
+        <v>24.93085108439016</v>
       </c>
       <c r="G9">
-        <v>52.99993376693395</v>
+        <v>32.59864751351009</v>
       </c>
       <c r="H9">
-        <v>13.1549436193981</v>
+        <v>13.31722462430591</v>
       </c>
       <c r="I9">
-        <v>16.19470559257074</v>
+        <v>22.6937220161969</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>16.88128102619491</v>
+        <v>12.03057390096252</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.77980099318635</v>
+        <v>20.58665137297375</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.306040795729074</v>
+        <v>3.134192014184013</v>
       </c>
       <c r="E10">
-        <v>39.37355185089796</v>
+        <v>26.56055978296185</v>
       </c>
       <c r="F10">
-        <v>38.44379609347335</v>
+        <v>25.75818020722365</v>
       </c>
       <c r="G10">
-        <v>58.86927387785613</v>
+        <v>34.32512755823367</v>
       </c>
       <c r="H10">
-        <v>14.59913020319522</v>
+        <v>13.42335377238371</v>
       </c>
       <c r="I10">
-        <v>16.50286852420017</v>
+        <v>22.52324856689592</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>18.41667351142025</v>
+        <v>12.58501909313759</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.86595833387417</v>
+        <v>21.03881364591554</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.419698766094409</v>
+        <v>3.105596484942549</v>
       </c>
       <c r="E11">
-        <v>40.62776526901946</v>
+        <v>27.12810099249745</v>
       </c>
       <c r="F11">
-        <v>40.13009648737311</v>
+        <v>26.13956902090479</v>
       </c>
       <c r="G11">
-        <v>61.49530159536367</v>
+        <v>35.10208941304388</v>
       </c>
       <c r="H11">
-        <v>15.24650397332129</v>
+        <v>13.47745776280013</v>
       </c>
       <c r="I11">
-        <v>16.69237440607062</v>
+        <v>22.45601632306492</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>19.08415729222581</v>
+        <v>12.83000676778023</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.26954058835605</v>
+        <v>21.20748616592185</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.463138117588272</v>
+        <v>3.094930637125595</v>
       </c>
       <c r="E12">
-        <v>41.09475402655335</v>
+        <v>27.33975590443806</v>
       </c>
       <c r="F12">
-        <v>40.76492676120982</v>
+        <v>26.28454316102055</v>
       </c>
       <c r="G12">
-        <v>62.48467800260278</v>
+        <v>35.39473709564388</v>
       </c>
       <c r="H12">
-        <v>15.49057459753482</v>
+        <v>13.49877439463839</v>
       </c>
       <c r="I12">
-        <v>16.77173044636501</v>
+        <v>22.43205396641643</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>19.33262013920206</v>
+        <v>12.92166286170861</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.18296187943117</v>
+        <v>21.17127472195069</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.453762926593584</v>
+        <v>3.097220496894472</v>
       </c>
       <c r="E13">
-        <v>40.99453081645584</v>
+        <v>27.29431939179038</v>
       </c>
       <c r="F13">
-        <v>40.62835660815919</v>
+        <v>26.25329861085481</v>
       </c>
       <c r="G13">
-        <v>62.27179924883101</v>
+        <v>35.33178541493637</v>
       </c>
       <c r="H13">
-        <v>15.43805190822324</v>
+        <v>13.49414678867133</v>
       </c>
       <c r="I13">
-        <v>16.75429412406607</v>
+        <v>22.43714789625071</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>19.27929770386485</v>
+        <v>12.90197380978595</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.89931480067088</v>
+        <v>21.05274219511123</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.423263833996607</v>
+        <v>3.104715743955649</v>
       </c>
       <c r="E14">
-        <v>40.6663432172916</v>
+        <v>27.14558009268146</v>
       </c>
       <c r="F14">
-        <v>40.1823941479799</v>
+        <v>26.15148607375411</v>
       </c>
       <c r="G14">
-        <v>61.5767910160187</v>
+        <v>35.12619913727855</v>
       </c>
       <c r="H14">
-        <v>15.26660339116716</v>
+        <v>13.47919494704567</v>
       </c>
       <c r="I14">
-        <v>16.69874805705872</v>
+        <v>22.45401484664599</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>19.10468366773292</v>
+        <v>12.83757012914245</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.7245735834181</v>
+        <v>20.97980206835605</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.404637922143734</v>
+        <v>3.109327958015228</v>
       </c>
       <c r="E15">
-        <v>40.46428758847419</v>
+        <v>27.0540443062685</v>
       </c>
       <c r="F15">
-        <v>39.90876885195198</v>
+        <v>26.08918958151166</v>
       </c>
       <c r="G15">
-        <v>61.1504639660996</v>
+        <v>35.00005693023686</v>
       </c>
       <c r="H15">
-        <v>15.16145628367734</v>
+        <v>13.47014412075194</v>
       </c>
       <c r="I15">
-        <v>16.66572810505254</v>
+        <v>22.4645416937023</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>18.99717267569936</v>
+        <v>12.79797364755068</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.70772584889193</v>
+        <v>20.55675054007853</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.298662400179299</v>
+        <v>3.136083605439961</v>
       </c>
       <c r="E16">
-        <v>39.29046487739977</v>
+        <v>26.52302091762119</v>
       </c>
       <c r="F16">
-        <v>38.33302343544712</v>
+        <v>25.73334191267009</v>
       </c>
       <c r="G16">
-        <v>58.69687567396256</v>
+        <v>34.27415026083295</v>
       </c>
       <c r="H16">
-        <v>14.55665422834115</v>
+        <v>13.41993444245111</v>
       </c>
       <c r="I16">
-        <v>16.49151962321538</v>
+        <v>22.52785111359536</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>18.37244139347279</v>
+        <v>12.56885641527798</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.06994302674544</v>
+        <v>20.29279898243952</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.234236503919105</v>
+        <v>3.152787920967959</v>
       </c>
       <c r="E17">
-        <v>38.55604482693003</v>
+        <v>26.19159864126607</v>
       </c>
       <c r="F17">
-        <v>37.35881394354659</v>
+        <v>25.51620527872598</v>
       </c>
       <c r="G17">
-        <v>57.18124974534421</v>
+        <v>33.82640604190147</v>
       </c>
       <c r="H17">
-        <v>14.18336627830631</v>
+        <v>13.39061864311465</v>
       </c>
       <c r="I17">
-        <v>16.39764313249942</v>
+        <v>22.56934148562263</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>17.98135975962456</v>
+        <v>12.42639190997326</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.6979047186143</v>
+        <v>20.13939423741886</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.197361208498</v>
+        <v>3.162502860465736</v>
       </c>
       <c r="E18">
-        <v>38.12832843744782</v>
+        <v>25.99894258133721</v>
       </c>
       <c r="F18">
-        <v>36.79545984612751</v>
+        <v>25.39179786536163</v>
       </c>
       <c r="G18">
-        <v>56.30527271171836</v>
+        <v>33.56810198444285</v>
       </c>
       <c r="H18">
-        <v>13.96773593385821</v>
+        <v>13.37430595019219</v>
       </c>
       <c r="I18">
-        <v>16.34826126166928</v>
+        <v>22.59417594441225</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>17.75349406441876</v>
+        <v>12.34377336481638</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.57103943821526</v>
+        <v>20.08718534060164</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.184903801710531</v>
+        <v>3.165810585129351</v>
       </c>
       <c r="E19">
-        <v>37.98259849185144</v>
+        <v>25.93336854227713</v>
       </c>
       <c r="F19">
-        <v>36.60417866079339</v>
+        <v>25.34976410107009</v>
       </c>
       <c r="G19">
-        <v>56.00792069452496</v>
+        <v>33.4805233515813</v>
       </c>
       <c r="H19">
-        <v>13.89456013691905</v>
+        <v>13.36887728261521</v>
       </c>
       <c r="I19">
-        <v>16.33231819378967</v>
+        <v>22.60275069950539</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>17.67583573993879</v>
+        <v>12.31568634250699</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.13837310487144</v>
+        <v>20.32106220623571</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.241075289438583</v>
+        <v>3.150998643939847</v>
       </c>
       <c r="E20">
-        <v>38.63477267305973</v>
+        <v>26.22709040219952</v>
       </c>
       <c r="F20">
-        <v>37.46282701066929</v>
+        <v>25.53927103808615</v>
       </c>
       <c r="G20">
-        <v>57.34301994658403</v>
+        <v>33.87415193900101</v>
       </c>
       <c r="H20">
-        <v>14.22319715815869</v>
+        <v>13.39368260181929</v>
       </c>
       <c r="I20">
-        <v>16.4071552860445</v>
+        <v>22.56482424453501</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>18.02329282720825</v>
+        <v>12.44162810984053</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.98283665883241</v>
+        <v>21.08762818592665</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.432210330467374</v>
+        <v>3.102509800164118</v>
       </c>
       <c r="E21">
-        <v>40.76295447540418</v>
+        <v>27.18935800141838</v>
       </c>
       <c r="F21">
-        <v>40.31347845324262</v>
+        <v>26.18137730123632</v>
       </c>
       <c r="G21">
-        <v>61.78105717739981</v>
+        <v>35.18663014322978</v>
       </c>
       <c r="H21">
-        <v>15.31698841795783</v>
+        <v>13.48356425881114</v>
       </c>
       <c r="I21">
-        <v>16.71485325688467</v>
+        <v>22.44901987945291</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>19.15608736562002</v>
+        <v>12.85651788643754</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.14340091925236</v>
+        <v>21.57370665654364</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.559523057821154</v>
+        <v>3.071767270678726</v>
       </c>
       <c r="E22">
-        <v>42.10758089785442</v>
+        <v>27.79919456498944</v>
       </c>
       <c r="F22">
-        <v>42.15525642559084</v>
+        <v>26.6041627280507</v>
       </c>
       <c r="G22">
-        <v>64.65296178212434</v>
+        <v>36.03511103958374</v>
       </c>
       <c r="H22">
-        <v>16.02576477158949</v>
+        <v>13.54713137881086</v>
       </c>
       <c r="I22">
-        <v>16.96043904584709</v>
+        <v>22.38206693296046</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>19.87146585101235</v>
+        <v>13.12114117980481</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.52802098892219</v>
+        <v>21.31567751533461</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.49131275021869</v>
+        <v>3.088088686149137</v>
       </c>
       <c r="E23">
-        <v>41.39410476921174</v>
+        <v>27.47550121180433</v>
       </c>
       <c r="F23">
-        <v>41.17391053018938</v>
+        <v>26.37828356324545</v>
       </c>
       <c r="G23">
-        <v>63.12229804374625</v>
+        <v>35.58322182191544</v>
       </c>
       <c r="H23">
-        <v>15.64791541913813</v>
+        <v>13.51276649511654</v>
       </c>
       <c r="I23">
-        <v>16.82513285824764</v>
+        <v>22.41699763830102</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>19.49188236517979</v>
+        <v>12.98052729483392</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.10745260342517</v>
+        <v>20.30828955008722</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.237982971797563</v>
+        <v>3.151807229016943</v>
       </c>
       <c r="E24">
-        <v>38.59919691762349</v>
+        <v>26.21105115967557</v>
       </c>
       <c r="F24">
-        <v>37.41581293952851</v>
+        <v>25.52884166404684</v>
       </c>
       <c r="G24">
-        <v>57.26989813284719</v>
+        <v>33.85256876322151</v>
       </c>
       <c r="H24">
-        <v>14.20519282314364</v>
+        <v>13.39229569924053</v>
       </c>
       <c r="I24">
-        <v>16.40284058602957</v>
+        <v>22.56686343437395</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>18.00434432925321</v>
+        <v>12.43474204141219</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.29688756627833</v>
+        <v>19.16160934735012</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.971327438932254</v>
+        <v>3.224634820242035</v>
       </c>
       <c r="E25">
-        <v>35.38194907798271</v>
+        <v>24.77026102686983</v>
       </c>
       <c r="F25">
-        <v>33.24494333676895</v>
+        <v>24.63180939153224</v>
       </c>
       <c r="G25">
-        <v>50.79234660601691</v>
+        <v>31.95796561164866</v>
       </c>
       <c r="H25">
-        <v>12.61293121592345</v>
+        <v>13.28335414787528</v>
       </c>
       <c r="I25">
-        <v>16.12152036419502</v>
+        <v>22.76555731188869</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.28747071294242</v>
+        <v>11.82052693028794</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_207/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_207/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.27072548466544</v>
+        <v>24.04868860943427</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.281823099207152</v>
+        <v>1.777277881194314</v>
       </c>
       <c r="E2">
-        <v>23.64955426240219</v>
+        <v>32.83723038731588</v>
       </c>
       <c r="F2">
-        <v>23.99422088531609</v>
+        <v>30.05089133755386</v>
       </c>
       <c r="G2">
-        <v>30.55378444541328</v>
+        <v>45.84487039360677</v>
       </c>
       <c r="H2">
-        <v>13.22139441892493</v>
+        <v>11.57490944353868</v>
       </c>
       <c r="I2">
-        <v>22.94321346680962</v>
+        <v>16.04469443879807</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.34947255283348</v>
+        <v>14.92174034712326</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.64103966924031</v>
+        <v>22.47044238446883</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.322825915193549</v>
+        <v>1.645819255851804</v>
       </c>
       <c r="E3">
-        <v>22.85656797215459</v>
+        <v>31.00398154437294</v>
       </c>
       <c r="F3">
-        <v>23.57963557676031</v>
+        <v>27.80198971522658</v>
       </c>
       <c r="G3">
-        <v>29.60489905944011</v>
+        <v>42.36854331896181</v>
       </c>
       <c r="H3">
-        <v>13.19082029628856</v>
+        <v>10.98068400895333</v>
       </c>
       <c r="I3">
-        <v>23.08291819917119</v>
+        <v>16.06369827901164</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.02035033082415</v>
+        <v>13.93073100285349</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.24286386186172</v>
+        <v>21.45514531962506</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.349116637291488</v>
+        <v>1.564742087041886</v>
       </c>
       <c r="E4">
-        <v>22.35468758350239</v>
+        <v>29.82574064014256</v>
       </c>
       <c r="F4">
-        <v>23.33477672204104</v>
+        <v>26.44445922819694</v>
       </c>
       <c r="G4">
-        <v>29.02673973814718</v>
+        <v>40.17085278516915</v>
       </c>
       <c r="H4">
-        <v>13.17767010015258</v>
+        <v>10.62179983758719</v>
       </c>
       <c r="I4">
-        <v>23.17813381859774</v>
+        <v>16.10697871898161</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.81409610229775</v>
+        <v>13.28940533512166</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.07791033728303</v>
+        <v>21.0283291283113</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.360111623789527</v>
+        <v>1.531560612282965</v>
       </c>
       <c r="E5">
-        <v>22.14665700845435</v>
+        <v>29.3325953815063</v>
       </c>
       <c r="F5">
-        <v>23.23758845481536</v>
+        <v>25.91841377946453</v>
       </c>
       <c r="G5">
-        <v>28.79274946250067</v>
+        <v>39.25923482197013</v>
       </c>
       <c r="H5">
-        <v>13.17372211771504</v>
+        <v>10.47716472669685</v>
       </c>
       <c r="I5">
-        <v>23.21929493235008</v>
+        <v>16.13205527463805</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.72911222559358</v>
+        <v>13.01973215234618</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.05036377656599</v>
+        <v>20.95666689055912</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.361954351640056</v>
+        <v>1.526040884355409</v>
       </c>
       <c r="E6">
-        <v>22.11190969786611</v>
+        <v>29.24993190749944</v>
       </c>
       <c r="F6">
-        <v>23.22161144881406</v>
+        <v>25.83072804137025</v>
       </c>
       <c r="G6">
-        <v>28.75400777713368</v>
+        <v>39.10689199124592</v>
       </c>
       <c r="H6">
-        <v>13.17315164078093</v>
+        <v>10.45324941757235</v>
       </c>
       <c r="I6">
-        <v>23.22627186318965</v>
+        <v>16.13665378065397</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.71494786165434</v>
+        <v>12.97444835728748</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.24064985516499</v>
+        <v>21.4494420733552</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.349263779292908</v>
+        <v>1.564295228459256</v>
       </c>
       <c r="E7">
-        <v>22.35189586440757</v>
+        <v>29.81914219749971</v>
       </c>
       <c r="F7">
-        <v>23.33345530629209</v>
+        <v>26.43738756872123</v>
       </c>
       <c r="G7">
-        <v>29.02357686372091</v>
+        <v>40.15862338962995</v>
       </c>
       <c r="H7">
-        <v>13.17761114953167</v>
+        <v>10.61984253782415</v>
       </c>
       <c r="I7">
-        <v>23.17867939350804</v>
+        <v>16.10728745656601</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.81295360172462</v>
+        <v>13.28580223019567</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.05612566906511</v>
+        <v>23.50922263126362</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.295730072830162</v>
+        <v>1.731993505157044</v>
       </c>
       <c r="E8">
-        <v>23.37938921145286</v>
+        <v>32.21616067176279</v>
       </c>
       <c r="F8">
-        <v>23.84935421434361</v>
+        <v>29.28430329732334</v>
       </c>
       <c r="G8">
-        <v>30.22597309147599</v>
+        <v>44.65920508893269</v>
       </c>
       <c r="H8">
-        <v>13.20968436765264</v>
+        <v>11.36883754073853</v>
       </c>
       <c r="I8">
-        <v>22.98941742372466</v>
+        <v>16.04437774350301</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.23692381713158</v>
+        <v>14.5868110553694</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.55548028252181</v>
+        <v>27.27095202402322</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.199551671027258</v>
+        <v>2.060591733529849</v>
       </c>
       <c r="E9">
-        <v>25.26535270026964</v>
+        <v>36.49300210406856</v>
       </c>
       <c r="F9">
-        <v>24.93085108439016</v>
+        <v>34.66776795964276</v>
       </c>
       <c r="G9">
-        <v>32.59864751351009</v>
+        <v>52.99993376693405</v>
       </c>
       <c r="H9">
-        <v>13.31722462430591</v>
+        <v>13.15494361939817</v>
       </c>
       <c r="I9">
-        <v>22.6937220161969</v>
+        <v>16.19470559257072</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.03057390096252</v>
+        <v>16.88128102619496</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.58665137297375</v>
+        <v>29.77980099318637</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.134192014184013</v>
+        <v>2.306040795729006</v>
       </c>
       <c r="E10">
-        <v>26.56055978296185</v>
+        <v>39.37355185089798</v>
       </c>
       <c r="F10">
-        <v>25.75818020722365</v>
+        <v>38.44379609347337</v>
       </c>
       <c r="G10">
-        <v>34.32512755823367</v>
+        <v>58.86927387785609</v>
       </c>
       <c r="H10">
-        <v>13.42335377238371</v>
+        <v>14.59913020319524</v>
       </c>
       <c r="I10">
-        <v>22.52324856689592</v>
+        <v>16.50286852420021</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.58501909313759</v>
+        <v>18.4166735114203</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.03881364591554</v>
+        <v>30.86595833387413</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.105596484942549</v>
+        <v>2.419698766094475</v>
       </c>
       <c r="E11">
-        <v>27.12810099249745</v>
+        <v>40.62776526901935</v>
       </c>
       <c r="F11">
-        <v>26.13956902090479</v>
+        <v>40.13009648737317</v>
       </c>
       <c r="G11">
-        <v>35.10208941304388</v>
+        <v>61.49530159536377</v>
       </c>
       <c r="H11">
-        <v>13.47745776280013</v>
+        <v>15.24650397332129</v>
       </c>
       <c r="I11">
-        <v>22.45601632306492</v>
+        <v>16.69237440607055</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.83000676778023</v>
+        <v>19.08415729222582</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.20748616592185</v>
+        <v>31.26954058835599</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.094930637125595</v>
+        <v>2.463138117588205</v>
       </c>
       <c r="E12">
-        <v>27.33975590443806</v>
+        <v>41.09475402655348</v>
       </c>
       <c r="F12">
-        <v>26.28454316102055</v>
+        <v>40.7649267612098</v>
       </c>
       <c r="G12">
-        <v>35.39473709564388</v>
+        <v>62.48467800260276</v>
       </c>
       <c r="H12">
-        <v>13.49877439463839</v>
+        <v>15.4905745975348</v>
       </c>
       <c r="I12">
-        <v>22.43205396641643</v>
+        <v>16.77173044636512</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.92166286170861</v>
+        <v>19.33262013920206</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.17127472195069</v>
+        <v>31.18296187943115</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.097220496894472</v>
+        <v>2.453762926593516</v>
       </c>
       <c r="E13">
-        <v>27.29431939179038</v>
+        <v>40.99453081645578</v>
       </c>
       <c r="F13">
-        <v>26.25329861085481</v>
+        <v>40.62835660815924</v>
       </c>
       <c r="G13">
-        <v>35.33178541493637</v>
+        <v>62.27179924883111</v>
       </c>
       <c r="H13">
-        <v>13.49414678867133</v>
+        <v>15.43805190822324</v>
       </c>
       <c r="I13">
-        <v>22.43714789625071</v>
+        <v>16.75429412406598</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.90197380978595</v>
+        <v>19.27929770386485</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.05274219511123</v>
+        <v>30.89931480067089</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.104715743955649</v>
+        <v>2.423263833996607</v>
       </c>
       <c r="E14">
-        <v>27.14558009268146</v>
+        <v>40.66634321729163</v>
       </c>
       <c r="F14">
-        <v>26.15148607375411</v>
+        <v>40.18239414798006</v>
       </c>
       <c r="G14">
-        <v>35.12619913727855</v>
+        <v>61.57679101601891</v>
       </c>
       <c r="H14">
-        <v>13.47919494704567</v>
+        <v>15.26660339116725</v>
       </c>
       <c r="I14">
-        <v>22.45401484664599</v>
+        <v>16.69874805705865</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.83757012914245</v>
+        <v>19.10468366773294</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.97980206835605</v>
+        <v>30.72457358341815</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.109327958015228</v>
+        <v>2.404637922143732</v>
       </c>
       <c r="E15">
-        <v>27.0540443062685</v>
+        <v>40.46428758847403</v>
       </c>
       <c r="F15">
-        <v>26.08918958151166</v>
+        <v>39.90876885195203</v>
       </c>
       <c r="G15">
-        <v>35.00005693023686</v>
+        <v>61.15046396609964</v>
       </c>
       <c r="H15">
-        <v>13.47014412075194</v>
+        <v>15.16145628367737</v>
       </c>
       <c r="I15">
-        <v>22.4645416937023</v>
+        <v>16.66572810505243</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.79797364755068</v>
+        <v>18.99717267569941</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.55675054007853</v>
+        <v>29.70772584889193</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.136083605439961</v>
+        <v>2.298662400179366</v>
       </c>
       <c r="E16">
-        <v>26.52302091762119</v>
+        <v>39.29046487739988</v>
       </c>
       <c r="F16">
-        <v>25.73334191267009</v>
+        <v>38.33302343544705</v>
       </c>
       <c r="G16">
-        <v>34.27415026083295</v>
+        <v>58.69687567396248</v>
       </c>
       <c r="H16">
-        <v>13.41993444245111</v>
+        <v>14.55665422834111</v>
       </c>
       <c r="I16">
-        <v>22.52785111359536</v>
+        <v>16.4915196232155</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.56885641527798</v>
+        <v>18.3724413934728</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.29279898243952</v>
+        <v>29.06994302674543</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.152787920967959</v>
+        <v>2.234236503918905</v>
       </c>
       <c r="E17">
-        <v>26.19159864126607</v>
+        <v>38.55604482692996</v>
       </c>
       <c r="F17">
-        <v>25.51620527872598</v>
+        <v>37.35881394354652</v>
       </c>
       <c r="G17">
-        <v>33.82640604190147</v>
+        <v>57.1812497453441</v>
       </c>
       <c r="H17">
-        <v>13.39061864311465</v>
+        <v>14.18336627830629</v>
       </c>
       <c r="I17">
-        <v>22.56934148562263</v>
+        <v>16.39764313249949</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.42639190997326</v>
+        <v>17.98135975962455</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.13939423741886</v>
+        <v>28.69790471861426</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.162502860465736</v>
+        <v>2.197361208497865</v>
       </c>
       <c r="E18">
-        <v>25.99894258133721</v>
+        <v>38.1283284374477</v>
       </c>
       <c r="F18">
-        <v>25.39179786536163</v>
+        <v>36.79545984612753</v>
       </c>
       <c r="G18">
-        <v>33.56810198444285</v>
+        <v>56.30527271171836</v>
       </c>
       <c r="H18">
-        <v>13.37430595019219</v>
+        <v>13.96773593385822</v>
       </c>
       <c r="I18">
-        <v>22.59417594441225</v>
+        <v>16.34826126166918</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.34377336481638</v>
+        <v>17.75349406441878</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.08718534060164</v>
+        <v>28.57103943821519</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.165810585129351</v>
+        <v>2.184903801710332</v>
       </c>
       <c r="E19">
-        <v>25.93336854227713</v>
+        <v>37.98259849185147</v>
       </c>
       <c r="F19">
-        <v>25.34976410107009</v>
+        <v>36.60417866079357</v>
       </c>
       <c r="G19">
-        <v>33.4805233515813</v>
+        <v>56.0079206945252</v>
       </c>
       <c r="H19">
-        <v>13.36887728261521</v>
+        <v>13.89456013691912</v>
       </c>
       <c r="I19">
-        <v>22.60275069950539</v>
+        <v>16.33231819378955</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.31568634250699</v>
+        <v>17.67583573993877</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.32106220623571</v>
+        <v>29.13837310487142</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.150998643939847</v>
+        <v>2.241075289438514</v>
       </c>
       <c r="E20">
-        <v>26.22709040219952</v>
+        <v>38.63477267305979</v>
       </c>
       <c r="F20">
-        <v>25.53927103808615</v>
+        <v>37.46282701066931</v>
       </c>
       <c r="G20">
-        <v>33.87415193900101</v>
+        <v>57.34301994658407</v>
       </c>
       <c r="H20">
-        <v>13.39368260181929</v>
+        <v>14.22319715815871</v>
       </c>
       <c r="I20">
-        <v>22.56482424453501</v>
+        <v>16.40715528604451</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.44162810984053</v>
+        <v>18.02329282720824</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.08762818592665</v>
+        <v>30.98283665883238</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.102509800164118</v>
+        <v>2.432210330467308</v>
       </c>
       <c r="E21">
-        <v>27.18935800141838</v>
+        <v>40.76295447540421</v>
       </c>
       <c r="F21">
-        <v>26.18137730123632</v>
+        <v>40.31347845324274</v>
       </c>
       <c r="G21">
-        <v>35.18663014322978</v>
+        <v>61.78105717739997</v>
       </c>
       <c r="H21">
-        <v>13.48356425881114</v>
+        <v>15.31698841795787</v>
       </c>
       <c r="I21">
-        <v>22.44901987945291</v>
+        <v>16.71485325688464</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.85651788643754</v>
+        <v>19.15608736562002</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.57370665654364</v>
+        <v>32.14340091925227</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.071767270678726</v>
+        <v>2.55952305782102</v>
       </c>
       <c r="E22">
-        <v>27.79919456498944</v>
+        <v>42.10758089785443</v>
       </c>
       <c r="F22">
-        <v>26.6041627280507</v>
+        <v>42.15525642559091</v>
       </c>
       <c r="G22">
-        <v>36.03511103958374</v>
+        <v>64.65296178212434</v>
       </c>
       <c r="H22">
-        <v>13.54713137881086</v>
+        <v>16.02576477158954</v>
       </c>
       <c r="I22">
-        <v>22.38206693296046</v>
+        <v>16.96043904584704</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.12114117980481</v>
+        <v>19.87146585101233</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.31567751533461</v>
+        <v>31.52802098892213</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.088088686149137</v>
+        <v>2.491312750218689</v>
       </c>
       <c r="E23">
-        <v>27.47550121180433</v>
+        <v>41.39410476921167</v>
       </c>
       <c r="F23">
-        <v>26.37828356324545</v>
+        <v>41.17391053018929</v>
       </c>
       <c r="G23">
-        <v>35.58322182191544</v>
+        <v>63.12229804374615</v>
       </c>
       <c r="H23">
-        <v>13.51276649511654</v>
+        <v>15.64791541913809</v>
       </c>
       <c r="I23">
-        <v>22.41699763830102</v>
+        <v>16.82513285824761</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.98052729483392</v>
+        <v>19.49188236517972</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.30828955008722</v>
+        <v>29.10745260342518</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.151807229016943</v>
+        <v>2.237982971797562</v>
       </c>
       <c r="E24">
-        <v>26.21105115967557</v>
+        <v>38.59919691762354</v>
       </c>
       <c r="F24">
-        <v>25.52884166404684</v>
+        <v>37.41581293952842</v>
       </c>
       <c r="G24">
-        <v>33.85256876322151</v>
+        <v>57.26989813284705</v>
       </c>
       <c r="H24">
-        <v>13.39229569924053</v>
+        <v>14.20519282314361</v>
       </c>
       <c r="I24">
-        <v>22.56686343437395</v>
+        <v>16.40284058602962</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.43474204141219</v>
+        <v>18.00434432925318</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.16160934735012</v>
+        <v>26.29688756627833</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.224634820242035</v>
+        <v>1.97132743893239</v>
       </c>
       <c r="E25">
-        <v>24.77026102686983</v>
+        <v>35.38194907798277</v>
       </c>
       <c r="F25">
-        <v>24.63180939153224</v>
+        <v>33.24494333676901</v>
       </c>
       <c r="G25">
-        <v>31.95796561164866</v>
+        <v>50.79234660601711</v>
       </c>
       <c r="H25">
-        <v>13.28335414787528</v>
+        <v>12.61293121592349</v>
       </c>
       <c r="I25">
-        <v>22.76555731188869</v>
+        <v>16.12152036419501</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.82052693028794</v>
+        <v>16.28747071294244</v>
       </c>
       <c r="M25">
         <v>0</v>
